--- a/modelos/OBABOL4471021/OBABOL4471021_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471021/OBABOL4471021_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44817</v>
       </c>
       <c r="B2" t="n">
-        <v>214.1803334271488</v>
+        <v>215.5421030223197</v>
       </c>
       <c r="C2" t="n">
-        <v>127.4898634480282</v>
+        <v>112.8152837697585</v>
       </c>
       <c r="D2" t="n">
-        <v>309.0022367574937</v>
+        <v>318.3542895337389</v>
       </c>
       <c r="E2" t="n">
         <v>230</v>
@@ -496,13 +496,13 @@
         <v>44824</v>
       </c>
       <c r="B3" t="n">
-        <v>219.7399786533192</v>
+        <v>223.512543813134</v>
       </c>
       <c r="C3" t="n">
-        <v>127.5639558313132</v>
+        <v>125.1033068273978</v>
       </c>
       <c r="D3" t="n">
-        <v>321.5630284568675</v>
+        <v>313.1779791451128</v>
       </c>
       <c r="E3" t="n">
         <v>180</v>
@@ -516,13 +516,13 @@
         <v>44831</v>
       </c>
       <c r="B4" t="n">
-        <v>199.8896069199801</v>
+        <v>205.6078432145942</v>
       </c>
       <c r="C4" t="n">
-        <v>108.3045462197279</v>
+        <v>109.717581830054</v>
       </c>
       <c r="D4" t="n">
-        <v>294.5038765660254</v>
+        <v>305.2358445129553</v>
       </c>
       <c r="E4" t="n">
         <v>160</v>
@@ -536,13 +536,13 @@
         <v>44838</v>
       </c>
       <c r="B5" t="n">
-        <v>187.7861725941497</v>
+        <v>189.8250764602606</v>
       </c>
       <c r="C5" t="n">
-        <v>92.95982216288928</v>
+        <v>87.54128010453957</v>
       </c>
       <c r="D5" t="n">
-        <v>283.7684560044733</v>
+        <v>286.6378477175016</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -556,13 +556,13 @@
         <v>44845</v>
       </c>
       <c r="B6" t="n">
-        <v>187.1290469834415</v>
+        <v>183.5722535399867</v>
       </c>
       <c r="C6" t="n">
-        <v>104.3558151257282</v>
+        <v>78.0341833017014</v>
       </c>
       <c r="D6" t="n">
-        <v>283.0866493578635</v>
+        <v>279.2233534939148</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
@@ -576,13 +576,13 @@
         <v>44852</v>
       </c>
       <c r="B7" t="n">
-        <v>183.9152965615727</v>
+        <v>182.4689407529642</v>
       </c>
       <c r="C7" t="n">
-        <v>91.43692547557276</v>
+        <v>87.58418845119712</v>
       </c>
       <c r="D7" t="n">
-        <v>282.6737012200919</v>
+        <v>276.9717158836585</v>
       </c>
       <c r="E7" t="n">
         <v>140</v>
@@ -596,13 +596,13 @@
         <v>44859</v>
       </c>
       <c r="B8" t="n">
-        <v>182.9092059583175</v>
+        <v>182.809931639672</v>
       </c>
       <c r="C8" t="n">
-        <v>86.11171850439145</v>
+        <v>87.46697695102466</v>
       </c>
       <c r="D8" t="n">
-        <v>283.9454857655683</v>
+        <v>285.3443645421729</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -616,13 +616,13 @@
         <v>44865</v>
       </c>
       <c r="B9" t="n">
-        <v>133.6346044101644</v>
+        <v>146.7961512868406</v>
       </c>
       <c r="C9" t="n">
-        <v>35.40569115115949</v>
+        <v>51.4322054977474</v>
       </c>
       <c r="D9" t="n">
-        <v>233.199090842019</v>
+        <v>244.3223863028062</v>
       </c>
       <c r="E9" t="n">
         <v>70</v>
@@ -636,13 +636,13 @@
         <v>44869</v>
       </c>
       <c r="B10" t="n">
-        <v>71.93561465590898</v>
+        <v>74.15062552113568</v>
       </c>
       <c r="C10" t="n">
-        <v>-22.9572090155838</v>
+        <v>-26.55092231963638</v>
       </c>
       <c r="D10" t="n">
-        <v>167.4387713869313</v>
+        <v>176.3278109514074</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44873</v>
       </c>
       <c r="B11" t="n">
-        <v>115.6445074489811</v>
+        <v>117.2538034319009</v>
       </c>
       <c r="C11" t="n">
-        <v>26.94014686523014</v>
+        <v>24.45247558282775</v>
       </c>
       <c r="D11" t="n">
-        <v>210.1718792811251</v>
+        <v>211.3995629933037</v>
       </c>
       <c r="E11" t="n">
         <v>110</v>
@@ -676,13 +676,13 @@
         <v>44880</v>
       </c>
       <c r="B12" t="n">
-        <v>93.71420067675732</v>
+        <v>90.23689591685979</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.207247604066226</v>
+        <v>-3.186707132142439</v>
       </c>
       <c r="D12" t="n">
-        <v>184.353206688592</v>
+        <v>181.250331542312</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -696,13 +696,13 @@
         <v>44887</v>
       </c>
       <c r="B13" t="n">
-        <v>77.08276954008524</v>
+        <v>77.14689972927268</v>
       </c>
       <c r="C13" t="n">
-        <v>-16.46807129511905</v>
+        <v>-18.8389315338511</v>
       </c>
       <c r="D13" t="n">
-        <v>164.3656435384368</v>
+        <v>172.1362107106313</v>
       </c>
       <c r="E13" t="n">
         <v>70</v>
@@ -716,13 +716,13 @@
         <v>44894</v>
       </c>
       <c r="B14" t="n">
-        <v>87.76248598751987</v>
+        <v>88.55099379234133</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.129505930190358</v>
+        <v>-7.301461625756971</v>
       </c>
       <c r="D14" t="n">
-        <v>181.1403021669377</v>
+        <v>185.3664024798206</v>
       </c>
       <c r="E14" t="n">
         <v>20</v>
@@ -736,13 +736,13 @@
         <v>44897</v>
       </c>
       <c r="B15" t="n">
-        <v>21.73171094397946</v>
+        <v>25.18766526228325</v>
       </c>
       <c r="C15" t="n">
-        <v>-73.67231467463071</v>
+        <v>-76.21710983821978</v>
       </c>
       <c r="D15" t="n">
-        <v>118.2090325402819</v>
+        <v>121.5724389949734</v>
       </c>
       <c r="E15" t="n">
         <v>50</v>
@@ -756,13 +756,13 @@
         <v>44901</v>
       </c>
       <c r="B16" t="n">
-        <v>92.08374008191802</v>
+        <v>95.3156088253121</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.243906189622727</v>
+        <v>-9.029182674573644</v>
       </c>
       <c r="D16" t="n">
-        <v>180.0859859754603</v>
+        <v>193.8000504841582</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
@@ -776,13 +776,13 @@
         <v>44908</v>
       </c>
       <c r="B17" t="n">
-        <v>116.5510307197107</v>
+        <v>117.3831537525665</v>
       </c>
       <c r="C17" t="n">
-        <v>24.13165932841481</v>
+        <v>21.77704336936815</v>
       </c>
       <c r="D17" t="n">
-        <v>207.6511440602807</v>
+        <v>215.1208136727797</v>
       </c>
       <c r="E17" t="n">
         <v>40</v>
@@ -796,13 +796,13 @@
         <v>44915</v>
       </c>
       <c r="B18" t="n">
-        <v>111.7694761416236</v>
+        <v>107.3790498237008</v>
       </c>
       <c r="C18" t="n">
-        <v>16.41765707589757</v>
+        <v>15.16328190414727</v>
       </c>
       <c r="D18" t="n">
-        <v>203.4825038178747</v>
+        <v>203.7922615554233</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -816,13 +816,13 @@
         <v>44922</v>
       </c>
       <c r="B19" t="n">
-        <v>104.5267912004202</v>
+        <v>102.0454675503116</v>
       </c>
       <c r="C19" t="n">
-        <v>21.00333943363391</v>
+        <v>8.742515872456215</v>
       </c>
       <c r="D19" t="n">
-        <v>200.7589927016286</v>
+        <v>197.533141432432</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -836,13 +836,13 @@
         <v>44929</v>
       </c>
       <c r="B20" t="n">
-        <v>91.58348534464551</v>
+        <v>92.4916719563271</v>
       </c>
       <c r="C20" t="n">
-        <v>3.707075398187117</v>
+        <v>-2.022662912774256</v>
       </c>
       <c r="D20" t="n">
-        <v>185.3859796519</v>
+        <v>175.5774960859662</v>
       </c>
       <c r="E20" t="n">
         <v>80</v>
@@ -856,13 +856,13 @@
         <v>44936</v>
       </c>
       <c r="B21" t="n">
-        <v>93.38144351873794</v>
+        <v>99.3718343683383</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.551064268727051</v>
+        <v>5.456882798624545</v>
       </c>
       <c r="D21" t="n">
-        <v>192.1591742200147</v>
+        <v>190.4289433138111</v>
       </c>
       <c r="E21" t="n">
         <v>170</v>
@@ -876,13 +876,13 @@
         <v>44943</v>
       </c>
       <c r="B22" t="n">
-        <v>117.6597577451341</v>
+        <v>119.0574027587763</v>
       </c>
       <c r="C22" t="n">
-        <v>23.10586797578967</v>
+        <v>20.91777667505146</v>
       </c>
       <c r="D22" t="n">
-        <v>208.6921930862341</v>
+        <v>220.3152410088087</v>
       </c>
       <c r="E22" t="n">
         <v>110</v>
@@ -896,13 +896,13 @@
         <v>44950</v>
       </c>
       <c r="B23" t="n">
-        <v>121.8286775163558</v>
+        <v>111.4391927202088</v>
       </c>
       <c r="C23" t="n">
-        <v>29.97874427872747</v>
+        <v>13.17989579221587</v>
       </c>
       <c r="D23" t="n">
-        <v>212.740083247049</v>
+        <v>202.9086567253966</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
@@ -916,13 +916,13 @@
         <v>44957</v>
       </c>
       <c r="B24" t="n">
-        <v>108.4259258535366</v>
+        <v>103.4824392486572</v>
       </c>
       <c r="C24" t="n">
-        <v>14.9936285911842</v>
+        <v>0.8948979537400469</v>
       </c>
       <c r="D24" t="n">
-        <v>197.4769542841358</v>
+        <v>203.6513470165117</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -936,13 +936,13 @@
         <v>44960</v>
       </c>
       <c r="B25" t="n">
-        <v>26.3539952773879</v>
+        <v>26.66602711803429</v>
       </c>
       <c r="C25" t="n">
-        <v>-72.80672519997447</v>
+        <v>-75.34304246270065</v>
       </c>
       <c r="D25" t="n">
-        <v>126.8892873995826</v>
+        <v>117.4829217246611</v>
       </c>
       <c r="E25" t="n">
         <v>50</v>
@@ -956,13 +956,13 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>75.03100150717924</v>
+        <v>78.0167592796487</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.81045177687824</v>
+        <v>-14.01604969016529</v>
       </c>
       <c r="D26" t="n">
-        <v>173.0437316477887</v>
+        <v>183.0637380561151</v>
       </c>
       <c r="E26" t="n">
         <v>80</v>
@@ -976,13 +976,13 @@
         <v>44971</v>
       </c>
       <c r="B27" t="n">
-        <v>70.83608897404858</v>
+        <v>75.07311466533612</v>
       </c>
       <c r="C27" t="n">
-        <v>-18.31103198786197</v>
+        <v>-17.87387750057424</v>
       </c>
       <c r="D27" t="n">
-        <v>166.5849217860163</v>
+        <v>170.5796341586494</v>
       </c>
       <c r="E27" t="n">
         <v>90</v>
@@ -996,13 +996,13 @@
         <v>44980</v>
       </c>
       <c r="B28" t="n">
-        <v>235.4451614768175</v>
+        <v>235.8996754637332</v>
       </c>
       <c r="C28" t="n">
-        <v>141.9568792249422</v>
+        <v>140.0079034604632</v>
       </c>
       <c r="D28" t="n">
-        <v>331.2624390518091</v>
+        <v>333.727117710162</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
@@ -1016,13 +1016,13 @@
         <v>44985</v>
       </c>
       <c r="B29" t="n">
-        <v>144.589232499818</v>
+        <v>144.9603063697166</v>
       </c>
       <c r="C29" t="n">
-        <v>52.96446841255436</v>
+        <v>53.52396002912171</v>
       </c>
       <c r="D29" t="n">
-        <v>232.3563913071229</v>
+        <v>236.9178458442071</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -1036,13 +1036,13 @@
         <v>44988</v>
       </c>
       <c r="B30" t="n">
-        <v>102.4994830389898</v>
+        <v>94.71945339697214</v>
       </c>
       <c r="C30" t="n">
-        <v>7.352426490310897</v>
+        <v>0.9599232462417765</v>
       </c>
       <c r="D30" t="n">
-        <v>200.1695535816053</v>
+        <v>187.2011658546045</v>
       </c>
       <c r="E30" t="n">
         <v>90</v>
@@ -1056,13 +1056,13 @@
         <v>44992</v>
       </c>
       <c r="B31" t="n">
-        <v>197.2982718227404</v>
+        <v>191.5765710739455</v>
       </c>
       <c r="C31" t="n">
-        <v>119.4176888933882</v>
+        <v>90.70071740742867</v>
       </c>
       <c r="D31" t="n">
-        <v>290.3429674552451</v>
+        <v>289.5673351687744</v>
       </c>
       <c r="E31" t="n">
         <v>120</v>
@@ -1076,13 +1076,13 @@
         <v>44999</v>
       </c>
       <c r="B32" t="n">
-        <v>233.4343520737996</v>
+        <v>236.9414717589881</v>
       </c>
       <c r="C32" t="n">
-        <v>144.7843640604308</v>
+        <v>142.9972194179603</v>
       </c>
       <c r="D32" t="n">
-        <v>325.695373387417</v>
+        <v>327.3496882015156</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1096,13 +1096,13 @@
         <v>45006</v>
       </c>
       <c r="B33" t="n">
-        <v>203.6612617563424</v>
+        <v>212.0982882191084</v>
       </c>
       <c r="C33" t="n">
-        <v>112.9537208780451</v>
+        <v>118.7051153882579</v>
       </c>
       <c r="D33" t="n">
-        <v>298.2443090090289</v>
+        <v>302.5494168775747</v>
       </c>
       <c r="E33" t="n">
         <v>130</v>
@@ -1116,13 +1116,13 @@
         <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>172.0019313022389</v>
+        <v>173.3311336835726</v>
       </c>
       <c r="C34" t="n">
-        <v>83.01633570665962</v>
+        <v>81.95514458864764</v>
       </c>
       <c r="D34" t="n">
-        <v>265.1648149585595</v>
+        <v>270.9044631275252</v>
       </c>
       <c r="E34" t="n">
         <v>70</v>
@@ -1136,13 +1136,13 @@
         <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>136.8171826802233</v>
+        <v>130.2518367100115</v>
       </c>
       <c r="C35" t="n">
-        <v>42.64788499121448</v>
+        <v>41.78990422356731</v>
       </c>
       <c r="D35" t="n">
-        <v>232.179260948121</v>
+        <v>224.7095693220121</v>
       </c>
       <c r="E35" t="n">
         <v>80</v>
@@ -1156,13 +1156,13 @@
         <v>45027</v>
       </c>
       <c r="B36" t="n">
-        <v>131.4082865585438</v>
+        <v>125.6838928966091</v>
       </c>
       <c r="C36" t="n">
-        <v>39.97750200208306</v>
+        <v>30.24173011619216</v>
       </c>
       <c r="D36" t="n">
-        <v>222.5057897896158</v>
+        <v>219.8670387499716</v>
       </c>
       <c r="E36" t="n">
         <v>50</v>
@@ -1176,13 +1176,13 @@
         <v>45040</v>
       </c>
       <c r="B37" t="n">
-        <v>165.4899273403684</v>
+        <v>180.7467941268221</v>
       </c>
       <c r="C37" t="n">
-        <v>73.16594261607783</v>
+        <v>85.82662593022323</v>
       </c>
       <c r="D37" t="n">
-        <v>258.3099758934953</v>
+        <v>275.3373979995134</v>
       </c>
       <c r="E37" t="n">
         <v>260</v>
@@ -1196,13 +1196,13 @@
         <v>45048</v>
       </c>
       <c r="B38" t="n">
-        <v>201.0748252943329</v>
+        <v>231.4176521320576</v>
       </c>
       <c r="C38" t="n">
-        <v>111.3109096754024</v>
+        <v>134.9806337161849</v>
       </c>
       <c r="D38" t="n">
-        <v>294.4737241696184</v>
+        <v>315.8395232169514</v>
       </c>
       <c r="E38" t="n">
         <v>150</v>
@@ -1216,13 +1216,13 @@
         <v>45055</v>
       </c>
       <c r="B39" t="n">
-        <v>160.7475079692817</v>
+        <v>187.7596306117387</v>
       </c>
       <c r="C39" t="n">
-        <v>72.23170920485038</v>
+        <v>95.67528683807701</v>
       </c>
       <c r="D39" t="n">
-        <v>247.6339409114667</v>
+        <v>280.3747422663322</v>
       </c>
       <c r="E39" t="n">
         <v>120</v>
@@ -1236,13 +1236,13 @@
         <v>45062</v>
       </c>
       <c r="B40" t="n">
-        <v>109.4431276228104</v>
+        <v>115.6084036524763</v>
       </c>
       <c r="C40" t="n">
-        <v>21.11119926861184</v>
+        <v>28.7860834279472</v>
       </c>
       <c r="D40" t="n">
-        <v>201.3920180166344</v>
+        <v>206.5148437698117</v>
       </c>
       <c r="E40" t="n">
         <v>70</v>
@@ -1317,22 +1317,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1052.943712856397</v>
+        <v>1028.67243257232</v>
       </c>
       <c r="C2" t="n">
-        <v>32.44909417620771</v>
+        <v>32.07292366736029</v>
       </c>
       <c r="D2" t="n">
-        <v>29.08734786838286</v>
+        <v>26.75409663444757</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9434874383114416</v>
+        <v>0.9307239498819754</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5191429377863264</v>
+        <v>0.4814630761968246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.666809094397515</v>
+        <v>0.6175311329892126</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1343,25 +1343,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4678.153475141119</v>
+        <v>4402.463975406652</v>
       </c>
       <c r="C3" t="n">
-        <v>68.39702826249923</v>
+        <v>66.35106612110052</v>
       </c>
       <c r="D3" t="n">
-        <v>62.41067497939296</v>
+        <v>60.93448459815537</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7386844983532085</v>
+        <v>0.777543949332472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3635002794601215</v>
+        <v>0.3048200225891459</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5786794635671541</v>
+        <v>0.5618755823521501</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1369,22 +1369,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5827.651524913352</v>
+        <v>5968.531006420594</v>
       </c>
       <c r="C4" t="n">
-        <v>76.3390563533068</v>
+        <v>77.25626839564926</v>
       </c>
       <c r="D4" t="n">
-        <v>61.34005587239532</v>
+        <v>62.20541647027517</v>
       </c>
       <c r="E4" t="n">
-        <v>1.406406965314036</v>
+        <v>1.395143534294711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5650491710939189</v>
+        <v>0.6123096922456781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6053559473021579</v>
+        <v>0.6049683402519079</v>
       </c>
       <c r="H4" t="n">
         <v>0.84375</v>

--- a/modelos/OBABOL4471021/OBABOL4471021_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471021/OBABOL4471021_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,781 +473,821 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44817</v>
+        <v>44806</v>
       </c>
       <c r="B2" t="n">
-        <v>215.5421030223197</v>
+        <v>94.84038683537422</v>
       </c>
       <c r="C2" t="n">
-        <v>112.8152837697585</v>
+        <v>-2.174814186004489</v>
       </c>
       <c r="D2" t="n">
-        <v>318.3542895337389</v>
+        <v>187.5603386393257</v>
       </c>
       <c r="E2" t="n">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44824</v>
+        <v>44810</v>
       </c>
       <c r="B3" t="n">
-        <v>223.512543813134</v>
+        <v>177.8220898334918</v>
       </c>
       <c r="C3" t="n">
-        <v>125.1033068273978</v>
+        <v>88.5001767213401</v>
       </c>
       <c r="D3" t="n">
-        <v>313.1779791451128</v>
+        <v>268.7464530514824</v>
       </c>
       <c r="E3" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44817</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
       <c r="B4" t="n">
-        <v>205.6078432145942</v>
+        <v>213.3991934914891</v>
       </c>
       <c r="C4" t="n">
-        <v>109.717581830054</v>
+        <v>111.7635110890278</v>
       </c>
       <c r="D4" t="n">
-        <v>305.2358445129553</v>
+        <v>301.0030491246889</v>
       </c>
       <c r="E4" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44824</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44838</v>
+        <v>44824</v>
       </c>
       <c r="B5" t="n">
-        <v>189.8250764602606</v>
+        <v>218.9222265984583</v>
       </c>
       <c r="C5" t="n">
-        <v>87.54128010453957</v>
+        <v>123.3057597686402</v>
       </c>
       <c r="D5" t="n">
-        <v>286.6378477175016</v>
+        <v>310.604145430003</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44845</v>
+        <v>44831</v>
       </c>
       <c r="B6" t="n">
-        <v>183.5722535399867</v>
+        <v>196.7921965601391</v>
       </c>
       <c r="C6" t="n">
-        <v>78.0341833017014</v>
+        <v>106.5392053907854</v>
       </c>
       <c r="D6" t="n">
-        <v>279.2233534939148</v>
+        <v>297.1024100742702</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44838</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44852</v>
+        <v>44838</v>
       </c>
       <c r="B7" t="n">
-        <v>182.4689407529642</v>
+        <v>183.2038131831545</v>
       </c>
       <c r="C7" t="n">
-        <v>87.58418845119712</v>
+        <v>88.24181998045674</v>
       </c>
       <c r="D7" t="n">
-        <v>276.9717158836585</v>
+        <v>279.8750739658926</v>
       </c>
       <c r="E7" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44845</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
       <c r="B8" t="n">
-        <v>182.809931639672</v>
+        <v>184.3599813099877</v>
       </c>
       <c r="C8" t="n">
-        <v>87.46697695102466</v>
+        <v>85.02877493408535</v>
       </c>
       <c r="D8" t="n">
-        <v>285.3443645421729</v>
+        <v>281.7544483388934</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44852</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44865</v>
+        <v>44852</v>
       </c>
       <c r="B9" t="n">
-        <v>146.7961512868406</v>
+        <v>182.1881080118006</v>
       </c>
       <c r="C9" t="n">
-        <v>51.4322054977474</v>
+        <v>85.04221128469817</v>
       </c>
       <c r="D9" t="n">
-        <v>244.3223863028062</v>
+        <v>271.4236228500743</v>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44869</v>
+        <v>44859</v>
       </c>
       <c r="B10" t="n">
-        <v>74.15062552113568</v>
+        <v>180.1172055162043</v>
       </c>
       <c r="C10" t="n">
-        <v>-26.55092231963638</v>
+        <v>85.45170401447484</v>
       </c>
       <c r="D10" t="n">
-        <v>176.3278109514074</v>
+        <v>271.3295201514955</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44866</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44873</v>
+        <v>44865</v>
       </c>
       <c r="B11" t="n">
-        <v>117.2538034319009</v>
+        <v>130.1900491600998</v>
       </c>
       <c r="C11" t="n">
-        <v>24.45247558282775</v>
+        <v>31.08153116185942</v>
       </c>
       <c r="D11" t="n">
-        <v>211.3995629933037</v>
+        <v>230.5879378097135</v>
       </c>
       <c r="E11" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44880</v>
+        <v>44869</v>
       </c>
       <c r="B12" t="n">
-        <v>90.23689591685979</v>
+        <v>67.69094627658049</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.186707132142439</v>
+        <v>-22.44481578603962</v>
       </c>
       <c r="D12" t="n">
-        <v>181.250331542312</v>
+        <v>156.4185829024225</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
       <c r="B13" t="n">
-        <v>77.14689972927268</v>
+        <v>112.7530803630988</v>
       </c>
       <c r="C13" t="n">
-        <v>-18.8389315338511</v>
+        <v>24.95369765465281</v>
       </c>
       <c r="D13" t="n">
-        <v>172.1362107106313</v>
+        <v>204.416484259338</v>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44880</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="B14" t="n">
-        <v>88.55099379234133</v>
+        <v>90.78802239048156</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.301461625756971</v>
+        <v>-8.536816592698855</v>
       </c>
       <c r="D14" t="n">
-        <v>185.3664024798206</v>
+        <v>184.4152537407269</v>
       </c>
       <c r="E14" t="n">
         <v>20</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="B15" t="n">
-        <v>25.18766526228325</v>
+        <v>77.04934397595493</v>
       </c>
       <c r="C15" t="n">
-        <v>-76.21710983821978</v>
+        <v>-16.79665107466928</v>
       </c>
       <c r="D15" t="n">
-        <v>121.5724389949734</v>
+        <v>170.5032236138732</v>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="B16" t="n">
-        <v>95.3156088253121</v>
+        <v>87.41912252721852</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.029182674573644</v>
+        <v>-11.74046137528029</v>
       </c>
       <c r="D16" t="n">
-        <v>193.8000504841582</v>
+        <v>182.7617598155505</v>
       </c>
       <c r="E16" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44908</v>
+        <v>44897</v>
       </c>
       <c r="B17" t="n">
-        <v>117.3831537525665</v>
+        <v>17.82957450429097</v>
       </c>
       <c r="C17" t="n">
-        <v>21.77704336936815</v>
+        <v>-73.62713355124554</v>
       </c>
       <c r="D17" t="n">
-        <v>215.1208136727797</v>
+        <v>113.9020145755592</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
       <c r="B18" t="n">
-        <v>107.3790498237008</v>
+        <v>90.06891585949269</v>
       </c>
       <c r="C18" t="n">
-        <v>15.16328190414727</v>
+        <v>0.450857488297229</v>
       </c>
       <c r="D18" t="n">
-        <v>203.7922615554233</v>
+        <v>182.9327142173253</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="B19" t="n">
-        <v>102.0454675503116</v>
+        <v>116.5343110876343</v>
       </c>
       <c r="C19" t="n">
-        <v>8.742515872456215</v>
+        <v>28.5053459077471</v>
       </c>
       <c r="D19" t="n">
-        <v>197.533141432432</v>
+        <v>205.8174693594827</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B20" t="n">
-        <v>92.4916719563271</v>
+        <v>110.6531047694387</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.022662912774256</v>
+        <v>20.87856012685395</v>
       </c>
       <c r="D20" t="n">
-        <v>175.5774960859662</v>
+        <v>194.7147857835052</v>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
       <c r="B21" t="n">
-        <v>99.3718343683383</v>
+        <v>101.3126129418416</v>
       </c>
       <c r="C21" t="n">
-        <v>5.456882798624545</v>
+        <v>2.47924362768932</v>
       </c>
       <c r="D21" t="n">
-        <v>190.4289433138111</v>
+        <v>195.2878312350822</v>
       </c>
       <c r="E21" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
       <c r="B22" t="n">
-        <v>119.0574027587763</v>
+        <v>89.46307540569202</v>
       </c>
       <c r="C22" t="n">
-        <v>20.91777667505146</v>
+        <v>-7.803707236744849</v>
       </c>
       <c r="D22" t="n">
-        <v>220.3152410088087</v>
+        <v>187.7838819077281</v>
       </c>
       <c r="E22" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
       <c r="B23" t="n">
-        <v>111.4391927202088</v>
+        <v>92.25624873165128</v>
       </c>
       <c r="C23" t="n">
-        <v>13.17989579221587</v>
+        <v>3.775688212902083</v>
       </c>
       <c r="D23" t="n">
-        <v>202.9086567253966</v>
+        <v>185.8347244704389</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
       <c r="B24" t="n">
-        <v>103.4824392486572</v>
+        <v>113.9864610476352</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8948979537400469</v>
+        <v>27.54130509297768</v>
       </c>
       <c r="D24" t="n">
-        <v>203.6513470165117</v>
+        <v>206.814804587658</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44960</v>
+        <v>44950</v>
       </c>
       <c r="B25" t="n">
-        <v>26.66602711803429</v>
+        <v>117.2103320455067</v>
       </c>
       <c r="C25" t="n">
-        <v>-75.34304246270065</v>
+        <v>22.81905862949432</v>
       </c>
       <c r="D25" t="n">
-        <v>117.4829217246611</v>
+        <v>206.0373408929941</v>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
       <c r="B26" t="n">
-        <v>78.0167592796487</v>
+        <v>105.6792532928235</v>
       </c>
       <c r="C26" t="n">
-        <v>-14.01604969016529</v>
+        <v>14.54953194191939</v>
       </c>
       <c r="D26" t="n">
-        <v>183.0637380561151</v>
+        <v>196.1719600409257</v>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44971</v>
+        <v>44960</v>
       </c>
       <c r="B27" t="n">
-        <v>75.07311466533612</v>
+        <v>27.15908107541789</v>
       </c>
       <c r="C27" t="n">
-        <v>-17.87387750057424</v>
+        <v>-63.24403270009457</v>
       </c>
       <c r="D27" t="n">
-        <v>170.5796341586494</v>
+        <v>124.4885366153299</v>
       </c>
       <c r="E27" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44980</v>
+        <v>44964</v>
       </c>
       <c r="B28" t="n">
-        <v>235.8996754637332</v>
+        <v>77.2790333102288</v>
       </c>
       <c r="C28" t="n">
-        <v>140.0079034604632</v>
+        <v>-18.96966045589568</v>
       </c>
       <c r="D28" t="n">
-        <v>333.727117710162</v>
+        <v>173.0910721667366</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44978</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44985</v>
+        <v>44971</v>
       </c>
       <c r="B29" t="n">
-        <v>144.9603063697166</v>
+        <v>70.33511529278877</v>
       </c>
       <c r="C29" t="n">
-        <v>53.52396002912171</v>
+        <v>-23.71950768427675</v>
       </c>
       <c r="D29" t="n">
-        <v>236.9178458442071</v>
+        <v>161.7703484254009</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44988</v>
+        <v>44980</v>
       </c>
       <c r="B30" t="n">
-        <v>94.71945339697214</v>
+        <v>234.2360436186252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9599232462417765</v>
+        <v>147.9573339769227</v>
       </c>
       <c r="D30" t="n">
-        <v>187.2011658546045</v>
+        <v>324.443291668464</v>
       </c>
       <c r="E30" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B31" t="n">
-        <v>191.5765710739455</v>
+        <v>146.8852452948974</v>
       </c>
       <c r="C31" t="n">
-        <v>90.70071740742867</v>
+        <v>57.31487615695768</v>
       </c>
       <c r="D31" t="n">
-        <v>289.5673351687744</v>
+        <v>236.317117998347</v>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44999</v>
+        <v>44988</v>
       </c>
       <c r="B32" t="n">
-        <v>236.9414717589881</v>
+        <v>101.5757964192669</v>
       </c>
       <c r="C32" t="n">
-        <v>142.9972194179603</v>
+        <v>10.15397773279821</v>
       </c>
       <c r="D32" t="n">
-        <v>327.3496882015156</v>
+        <v>194.8239420890988</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B33" t="n">
-        <v>212.0982882191084</v>
+        <v>199.8668776890994</v>
       </c>
       <c r="C33" t="n">
-        <v>118.7051153882579</v>
+        <v>113.1889926400792</v>
       </c>
       <c r="D33" t="n">
-        <v>302.5494168775747</v>
+        <v>288.0309856901886</v>
       </c>
       <c r="E33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="B34" t="n">
-        <v>173.3311336835726</v>
+        <v>232.2117220501363</v>
       </c>
       <c r="C34" t="n">
-        <v>81.95514458864764</v>
+        <v>145.1940130672154</v>
       </c>
       <c r="D34" t="n">
-        <v>270.9044631275252</v>
+        <v>322.8240818436511</v>
       </c>
       <c r="E34" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="B35" t="n">
-        <v>130.2518367100115</v>
+        <v>206.7106681711237</v>
       </c>
       <c r="C35" t="n">
-        <v>41.78990422356731</v>
+        <v>119.2149710037315</v>
       </c>
       <c r="D35" t="n">
-        <v>224.7095693220121</v>
+        <v>300.4930531668317</v>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="B36" t="n">
-        <v>125.6838928966091</v>
+        <v>168.7995338237265</v>
       </c>
       <c r="C36" t="n">
-        <v>30.24173011619216</v>
+        <v>73.16676984688584</v>
       </c>
       <c r="D36" t="n">
-        <v>219.8670387499716</v>
+        <v>259.4743020450271</v>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45040</v>
+        <v>45020</v>
       </c>
       <c r="B37" t="n">
-        <v>180.7467941268221</v>
+        <v>137.4972180236622</v>
       </c>
       <c r="C37" t="n">
-        <v>85.82662593022323</v>
+        <v>43.25280757076381</v>
       </c>
       <c r="D37" t="n">
-        <v>275.3373979995134</v>
+        <v>225.9243445578853</v>
       </c>
       <c r="E37" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45034</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45048</v>
+        <v>45027</v>
       </c>
       <c r="B38" t="n">
-        <v>231.4176521320576</v>
+        <v>138.0607308705719</v>
       </c>
       <c r="C38" t="n">
-        <v>134.9806337161849</v>
+        <v>48.05608158935294</v>
       </c>
       <c r="D38" t="n">
-        <v>315.8395232169514</v>
+        <v>237.4951574151306</v>
       </c>
       <c r="E38" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45041</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45055</v>
+        <v>45040</v>
       </c>
       <c r="B39" t="n">
-        <v>187.7596306117387</v>
+        <v>178.0385931556086</v>
       </c>
       <c r="C39" t="n">
-        <v>95.67528683807701</v>
+        <v>88.56247549315846</v>
       </c>
       <c r="D39" t="n">
-        <v>280.3747422663322</v>
+        <v>269.8099582545352</v>
       </c>
       <c r="E39" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B40" t="n">
+        <v>212.6386112393992</v>
+      </c>
+      <c r="C40" t="n">
+        <v>121.6823244776533</v>
+      </c>
+      <c r="D40" t="n">
+        <v>304.9788084133765</v>
+      </c>
+      <c r="E40" t="n">
+        <v>150</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B41" t="n">
+        <v>162.2745362126997</v>
+      </c>
+      <c r="C41" t="n">
+        <v>75.79390234094205</v>
+      </c>
+      <c r="D41" t="n">
+        <v>254.7936219604716</v>
+      </c>
+      <c r="E41" t="n">
+        <v>120</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B40" t="n">
-        <v>115.6084036524763</v>
-      </c>
-      <c r="C40" t="n">
-        <v>28.7860834279472</v>
-      </c>
-      <c r="D40" t="n">
-        <v>206.5148437698117</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="B42" t="n">
+        <v>107.848424847092</v>
+      </c>
+      <c r="C42" t="n">
+        <v>15.55406424684042</v>
+      </c>
+      <c r="D42" t="n">
+        <v>197.258537775476</v>
+      </c>
+      <c r="E42" t="n">
         <v>70</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F42" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1317,22 +1357,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1028.67243257232</v>
+        <v>1913.23055501175</v>
       </c>
       <c r="C2" t="n">
-        <v>32.07292366736029</v>
+        <v>43.74049102389856</v>
       </c>
       <c r="D2" t="n">
-        <v>26.75409663444757</v>
+        <v>37.82369479030255</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9307239498819754</v>
+        <v>1.471082700843527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4814630761968246</v>
+        <v>0.6434085099141805</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6175311329892126</v>
+        <v>0.8105096208256233</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1343,22 +1383,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4402.463975406652</v>
+        <v>3541.743834957645</v>
       </c>
       <c r="C3" t="n">
-        <v>66.35106612110052</v>
+        <v>59.51255191098467</v>
       </c>
       <c r="D3" t="n">
-        <v>60.93448459815537</v>
+        <v>54.44971139627408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.777543949332472</v>
+        <v>1.029314856750518</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3048200225891459</v>
+        <v>0.5875470126575095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5618755823521501</v>
+        <v>0.6491420871868945</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1369,25 +1409,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5968.531006420594</v>
+        <v>5685.436110015253</v>
       </c>
       <c r="C4" t="n">
-        <v>77.25626839564926</v>
+        <v>75.40183094604038</v>
       </c>
       <c r="D4" t="n">
-        <v>62.20541647027517</v>
+        <v>60.60803705243444</v>
       </c>
       <c r="E4" t="n">
-        <v>1.395143534294711</v>
+        <v>1.354862168240906</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6123096922456781</v>
+        <v>0.5406917835298862</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6049683402519079</v>
+        <v>0.5908264757464874</v>
       </c>
       <c r="H4" t="n">
-        <v>0.84375</v>
+        <v>0.8484848484848486</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBABOL4471021/OBABOL4471021_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471021/OBABOL4471021_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,821 +473,781 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44806</v>
+        <v>44817</v>
       </c>
       <c r="B2" t="n">
-        <v>94.84038683537422</v>
+        <v>213.2379156492349</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.174814186004489</v>
+        <v>118.8738187625682</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5603386393257</v>
+        <v>312.2892665257031</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44803</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
       <c r="B3" t="n">
-        <v>177.8220898334918</v>
+        <v>219.7372274557084</v>
       </c>
       <c r="C3" t="n">
-        <v>88.5001767213401</v>
+        <v>128.4498376602724</v>
       </c>
       <c r="D3" t="n">
-        <v>268.7464530514824</v>
+        <v>319.1473324725226</v>
       </c>
       <c r="E3" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44803</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
       <c r="B4" t="n">
-        <v>213.3991934914891</v>
+        <v>199.8826014598711</v>
       </c>
       <c r="C4" t="n">
-        <v>111.7635110890278</v>
+        <v>110.2537307192241</v>
       </c>
       <c r="D4" t="n">
-        <v>301.0030491246889</v>
+        <v>299.696454794518</v>
       </c>
       <c r="E4" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44824</v>
+        <v>44838</v>
       </c>
       <c r="B5" t="n">
-        <v>218.9222265984583</v>
+        <v>186.6603766637911</v>
       </c>
       <c r="C5" t="n">
-        <v>123.3057597686402</v>
+        <v>97.33939163400872</v>
       </c>
       <c r="D5" t="n">
-        <v>310.604145430003</v>
+        <v>275.0559818806308</v>
       </c>
       <c r="E5" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44831</v>
+        <v>44845</v>
       </c>
       <c r="B6" t="n">
-        <v>196.7921965601391</v>
+        <v>183.7265203851028</v>
       </c>
       <c r="C6" t="n">
-        <v>106.5392053907854</v>
+        <v>95.90755507383182</v>
       </c>
       <c r="D6" t="n">
-        <v>297.1024100742702</v>
+        <v>276.5444161541195</v>
       </c>
       <c r="E6" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44824</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
       <c r="B7" t="n">
-        <v>183.2038131831545</v>
+        <v>179.3668792440134</v>
       </c>
       <c r="C7" t="n">
-        <v>88.24181998045674</v>
+        <v>86.51655150769484</v>
       </c>
       <c r="D7" t="n">
-        <v>279.8750739658926</v>
+        <v>270.2024845178839</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44831</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="B8" t="n">
-        <v>184.3599813099877</v>
+        <v>183.739475132192</v>
       </c>
       <c r="C8" t="n">
-        <v>85.02877493408535</v>
+        <v>84.56407447894776</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7544483388934</v>
+        <v>275.3295480266325</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B9" t="n">
-        <v>182.1881080118006</v>
+        <v>133.675487356636</v>
       </c>
       <c r="C9" t="n">
-        <v>85.04221128469817</v>
+        <v>38.79551218338602</v>
       </c>
       <c r="D9" t="n">
-        <v>271.4236228500743</v>
+        <v>233.7903593419291</v>
       </c>
       <c r="E9" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44859</v>
+        <v>44869</v>
       </c>
       <c r="B10" t="n">
-        <v>180.1172055162043</v>
+        <v>72.25369204396716</v>
       </c>
       <c r="C10" t="n">
-        <v>85.45170401447484</v>
+        <v>-17.56228212426088</v>
       </c>
       <c r="D10" t="n">
-        <v>271.3295201514955</v>
+        <v>160.6157897129997</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44852</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44865</v>
+        <v>44873</v>
       </c>
       <c r="B11" t="n">
-        <v>130.1900491600998</v>
+        <v>116.423099554798</v>
       </c>
       <c r="C11" t="n">
-        <v>31.08153116185942</v>
+        <v>26.99415940252889</v>
       </c>
       <c r="D11" t="n">
-        <v>230.5879378097135</v>
+        <v>208.7238742748389</v>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44869</v>
+        <v>44880</v>
       </c>
       <c r="B12" t="n">
-        <v>67.69094627658049</v>
+        <v>92.99270808066147</v>
       </c>
       <c r="C12" t="n">
-        <v>-22.44481578603962</v>
+        <v>3.361033450671068</v>
       </c>
       <c r="D12" t="n">
-        <v>156.4185829024225</v>
+        <v>190.7743373532894</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44866</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
       <c r="B13" t="n">
-        <v>112.7530803630988</v>
+        <v>78.62209571434963</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95369765465281</v>
+        <v>-15.80432739396847</v>
       </c>
       <c r="D13" t="n">
-        <v>204.416484259338</v>
+        <v>173.0555376144059</v>
       </c>
       <c r="E13" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44866</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="B14" t="n">
-        <v>90.78802239048156</v>
+        <v>87.15587337405995</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.536816592698855</v>
+        <v>-3.216334836997236</v>
       </c>
       <c r="D14" t="n">
-        <v>184.4152537407269</v>
+        <v>178.8125478333437</v>
       </c>
       <c r="E14" t="n">
         <v>20</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="B15" t="n">
-        <v>77.04934397595493</v>
+        <v>23.38414107011938</v>
       </c>
       <c r="C15" t="n">
-        <v>-16.79665107466928</v>
+        <v>-73.55672733064212</v>
       </c>
       <c r="D15" t="n">
-        <v>170.5032236138732</v>
+        <v>116.2665065803239</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B16" t="n">
+        <v>93.44051197248298</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.9847485011295374</v>
+      </c>
+      <c r="D16" t="n">
+        <v>186.877401864645</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B16" t="n">
-        <v>87.41912252721852</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-11.74046137528029</v>
-      </c>
-      <c r="D16" t="n">
-        <v>182.7617598155505</v>
-      </c>
-      <c r="E16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44897</v>
+        <v>44908</v>
       </c>
       <c r="B17" t="n">
-        <v>17.82957450429097</v>
+        <v>114.3108057003915</v>
       </c>
       <c r="C17" t="n">
-        <v>-73.62713355124554</v>
+        <v>25.79380638175678</v>
       </c>
       <c r="D17" t="n">
-        <v>113.9020145755592</v>
+        <v>205.5034441820824</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44894</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
       <c r="B18" t="n">
-        <v>90.06891585949269</v>
+        <v>110.1229477124115</v>
       </c>
       <c r="C18" t="n">
-        <v>0.450857488297229</v>
+        <v>15.18973661833511</v>
       </c>
       <c r="D18" t="n">
-        <v>182.9327142173253</v>
+        <v>195.2033779937486</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
       <c r="B19" t="n">
-        <v>116.5343110876343</v>
+        <v>100.181910659069</v>
       </c>
       <c r="C19" t="n">
-        <v>28.5053459077471</v>
+        <v>7.177504234804139</v>
       </c>
       <c r="D19" t="n">
-        <v>205.8174693594827</v>
+        <v>191.8571890246187</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="B20" t="n">
-        <v>110.6531047694387</v>
+        <v>93.82347444839971</v>
       </c>
       <c r="C20" t="n">
-        <v>20.87856012685395</v>
+        <v>-0.8023668974554368</v>
       </c>
       <c r="D20" t="n">
-        <v>194.7147857835052</v>
+        <v>186.4970468583232</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
       <c r="B21" t="n">
-        <v>101.3126129418416</v>
+        <v>95.51836484732578</v>
       </c>
       <c r="C21" t="n">
-        <v>2.47924362768932</v>
+        <v>3.505886312734227</v>
       </c>
       <c r="D21" t="n">
-        <v>195.2878312350822</v>
+        <v>183.4512743367427</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B22" t="n">
-        <v>89.46307540569202</v>
+        <v>116.94951076148</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.803707236744849</v>
+        <v>21.79514307793079</v>
       </c>
       <c r="D22" t="n">
-        <v>187.7838819077281</v>
+        <v>199.6108010031136</v>
       </c>
       <c r="E22" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B23" t="n">
-        <v>92.25624873165128</v>
+        <v>121.9001485863146</v>
       </c>
       <c r="C23" t="n">
-        <v>3.775688212902083</v>
+        <v>25.52510753276466</v>
       </c>
       <c r="D23" t="n">
-        <v>185.8347244704389</v>
+        <v>216.5558139996818</v>
       </c>
       <c r="E23" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B24" t="n">
-        <v>113.9864610476352</v>
+        <v>103.9775840297963</v>
       </c>
       <c r="C24" t="n">
-        <v>27.54130509297768</v>
+        <v>12.57572815423335</v>
       </c>
       <c r="D24" t="n">
-        <v>206.814804587658</v>
+        <v>196.1146035405762</v>
       </c>
       <c r="E24" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="B25" t="n">
-        <v>117.2103320455067</v>
+        <v>25.35257915493852</v>
       </c>
       <c r="C25" t="n">
-        <v>22.81905862949432</v>
+        <v>-68.1800978993641</v>
       </c>
       <c r="D25" t="n">
-        <v>206.0373408929941</v>
+        <v>129.4647853876076</v>
       </c>
       <c r="E25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B26" t="n">
+        <v>73.9707507571697</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-16.2446233787143</v>
+      </c>
+      <c r="D26" t="n">
+        <v>165.2985633460613</v>
+      </c>
+      <c r="E26" t="n">
+        <v>80</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B26" t="n">
-        <v>105.6792532928235</v>
-      </c>
-      <c r="C26" t="n">
-        <v>14.54953194191939</v>
-      </c>
-      <c r="D26" t="n">
-        <v>196.1719600409257</v>
-      </c>
-      <c r="E26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="B27" t="n">
-        <v>27.15908107541789</v>
+        <v>70.19834346618299</v>
       </c>
       <c r="C27" t="n">
-        <v>-63.24403270009457</v>
+        <v>-20.36073820965868</v>
       </c>
       <c r="D27" t="n">
-        <v>124.4885366153299</v>
+        <v>159.4841288317791</v>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44957</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B28" t="n">
-        <v>77.2790333102288</v>
+        <v>240.3440187199269</v>
       </c>
       <c r="C28" t="n">
-        <v>-18.96966045589568</v>
+        <v>160.5162211283411</v>
       </c>
       <c r="D28" t="n">
-        <v>173.0910721667366</v>
+        <v>329.8362793332772</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44971</v>
+        <v>44985</v>
       </c>
       <c r="B29" t="n">
-        <v>70.33511529278877</v>
+        <v>147.8481635243908</v>
       </c>
       <c r="C29" t="n">
-        <v>-23.71950768427675</v>
+        <v>66.28454407617069</v>
       </c>
       <c r="D29" t="n">
-        <v>161.7703484254009</v>
+        <v>236.9424477498119</v>
       </c>
       <c r="E29" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B30" t="n">
-        <v>234.2360436186252</v>
+        <v>99.20540296089897</v>
       </c>
       <c r="C30" t="n">
-        <v>147.9573339769227</v>
+        <v>13.63002448563915</v>
       </c>
       <c r="D30" t="n">
-        <v>324.443291668464</v>
+        <v>186.7131013364286</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B31" t="n">
+        <v>194.9333839015092</v>
+      </c>
+      <c r="C31" t="n">
+        <v>105.0587406683222</v>
+      </c>
+      <c r="D31" t="n">
+        <v>282.556301564297</v>
+      </c>
+      <c r="E31" t="n">
+        <v>120</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B31" t="n">
-        <v>146.8852452948974</v>
-      </c>
-      <c r="C31" t="n">
-        <v>57.31487615695768</v>
-      </c>
-      <c r="D31" t="n">
-        <v>236.317117998347</v>
-      </c>
-      <c r="E31" t="n">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B32" t="n">
-        <v>101.5757964192669</v>
+        <v>233.6181945986799</v>
       </c>
       <c r="C32" t="n">
-        <v>10.15397773279821</v>
+        <v>146.6395218808244</v>
       </c>
       <c r="D32" t="n">
-        <v>194.8239420890988</v>
+        <v>316.782167127528</v>
       </c>
       <c r="E32" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44985</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="B33" t="n">
-        <v>199.8668776890994</v>
+        <v>203.7188372494412</v>
       </c>
       <c r="C33" t="n">
-        <v>113.1889926400792</v>
+        <v>118.3772320601135</v>
       </c>
       <c r="D33" t="n">
-        <v>288.0309856901886</v>
+        <v>293.649020527168</v>
       </c>
       <c r="E33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>232.2117220501363</v>
+        <v>171.1430551275674</v>
       </c>
       <c r="C34" t="n">
-        <v>145.1940130672154</v>
+        <v>74.51460957267072</v>
       </c>
       <c r="D34" t="n">
-        <v>322.8240818436511</v>
+        <v>261.2519344520006</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>206.7106681711237</v>
+        <v>133.6469779840088</v>
       </c>
       <c r="C35" t="n">
-        <v>119.2149710037315</v>
+        <v>48.05110802546332</v>
       </c>
       <c r="D35" t="n">
-        <v>300.4930531668317</v>
+        <v>225.5840184180867</v>
       </c>
       <c r="E35" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B36" t="n">
-        <v>168.7995338237265</v>
+        <v>131.5471742437196</v>
       </c>
       <c r="C36" t="n">
-        <v>73.16676984688584</v>
+        <v>37.68630774374996</v>
       </c>
       <c r="D36" t="n">
-        <v>259.4743020450271</v>
+        <v>217.4934515902329</v>
       </c>
       <c r="E36" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45020</v>
+        <v>45040</v>
       </c>
       <c r="B37" t="n">
-        <v>137.4972180236622</v>
+        <v>167.5530713019028</v>
       </c>
       <c r="C37" t="n">
-        <v>43.25280757076381</v>
+        <v>76.76987454176515</v>
       </c>
       <c r="D37" t="n">
-        <v>225.9243445578853</v>
+        <v>253.6402255233696</v>
       </c>
       <c r="E37" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45013</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45027</v>
+        <v>45048</v>
       </c>
       <c r="B38" t="n">
-        <v>138.0607308705719</v>
+        <v>205.4150769748882</v>
       </c>
       <c r="C38" t="n">
-        <v>48.05608158935294</v>
+        <v>115.5793118011266</v>
       </c>
       <c r="D38" t="n">
-        <v>237.4951574151306</v>
+        <v>295.1848060892379</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45040</v>
+        <v>45055</v>
       </c>
       <c r="B39" t="n">
-        <v>178.0385931556086</v>
+        <v>157.5857966394475</v>
       </c>
       <c r="C39" t="n">
-        <v>88.56247549315846</v>
+        <v>64.87902908634345</v>
       </c>
       <c r="D39" t="n">
-        <v>269.8099582545352</v>
+        <v>251.3171889356775</v>
       </c>
       <c r="E39" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B40" t="n">
-        <v>212.6386112393992</v>
+        <v>110.3525977947911</v>
       </c>
       <c r="C40" t="n">
-        <v>121.6823244776533</v>
+        <v>25.20603961350349</v>
       </c>
       <c r="D40" t="n">
-        <v>304.9788084133765</v>
+        <v>202.862698839178</v>
       </c>
       <c r="E40" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B41" t="n">
-        <v>162.2745362126997</v>
-      </c>
-      <c r="C41" t="n">
-        <v>75.79390234094205</v>
-      </c>
-      <c r="D41" t="n">
-        <v>254.7936219604716</v>
-      </c>
-      <c r="E41" t="n">
-        <v>120</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B42" t="n">
-        <v>107.848424847092</v>
-      </c>
-      <c r="C42" t="n">
-        <v>15.55406424684042</v>
-      </c>
-      <c r="D42" t="n">
-        <v>197.258537775476</v>
-      </c>
-      <c r="E42" t="n">
-        <v>70</v>
-      </c>
-      <c r="F42" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1357,22 +1317,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1913.23055501175</v>
+        <v>1032.771769196791</v>
       </c>
       <c r="C2" t="n">
-        <v>43.74049102389856</v>
+        <v>32.13676662635478</v>
       </c>
       <c r="D2" t="n">
-        <v>37.82369479030255</v>
+        <v>28.18059369495205</v>
       </c>
       <c r="E2" t="n">
-        <v>1.471082700843527</v>
+        <v>0.9350581132045751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6434085099141805</v>
+        <v>0.5126327977494209</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8105096208256233</v>
+        <v>0.6524264056477704</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1383,25 +1343,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3541.743834957645</v>
+        <v>4544.591361670987</v>
       </c>
       <c r="C3" t="n">
-        <v>59.51255191098467</v>
+        <v>67.41358440011173</v>
       </c>
       <c r="D3" t="n">
-        <v>54.44971139627408</v>
+        <v>61.4343365832284</v>
       </c>
       <c r="E3" t="n">
-        <v>1.029314856750518</v>
+        <v>0.7334243476541286</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5875470126575095</v>
+        <v>0.3555651103772968</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6491420871868945</v>
+        <v>0.5700456977262115</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1409,25 +1369,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5685.436110015253</v>
+        <v>5719.64943124447</v>
       </c>
       <c r="C4" t="n">
-        <v>75.40183094604038</v>
+        <v>75.62836393341105</v>
       </c>
       <c r="D4" t="n">
-        <v>60.60803705243444</v>
+        <v>60.71926907213932</v>
       </c>
       <c r="E4" t="n">
-        <v>1.354862168240906</v>
+        <v>1.389527601242695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5406917835298862</v>
+        <v>0.5717668308122927</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5908264757464874</v>
+        <v>0.6021477521777605</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8484848484848486</v>
+        <v>0.84375</v>
       </c>
     </row>
   </sheetData>
